--- a/TeamSchedule.xlsx
+++ b/TeamSchedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Desktop\Dev Projects\cit261\cit261\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.hendricks\Desktop\Test\cit261\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19953759-3318-4ED3-81C5-DD951D1D32A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team Schedule" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -470,7 +469,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -955,7 +954,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -988,7 +986,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1021,7 +1018,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1054,7 +1050,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1087,7 +1082,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1120,7 +1114,6 @@
         <sz val="18"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1153,7 +1146,6 @@
         <sz val="26"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1226,28 +1218,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:G16" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
-  <autoFilter ref="A2:G15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G16" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+  <autoFilter ref="A2:G15"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Code Topics" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Jacob" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Brett" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Kyle" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nick" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mitch" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{FEE5AB99-9396-42F7-8C8E-B121657EF141}" name="Wendy" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Code Topics" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Jacob" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="Brett" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="Kyle" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Nick" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Mitch" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="7" name="Wendy" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A2:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A2:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Code Topics" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="My Study Schedule" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="My Turn in Schedule" dataDxfId="0"/>
+    <tableColumn id="1" name="Code Topics" dataDxfId="2"/>
+    <tableColumn id="2" name="My Study Schedule" dataDxfId="1"/>
+    <tableColumn id="3" name="My Turn in Schedule" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1515,20 +1507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="73.875" style="1" customWidth="1"/>
-    <col min="2" max="6" width="16.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="73.8984375" style="1" customWidth="1"/>
+    <col min="2" max="6" width="16.3984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1">
@@ -1544,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="23.25">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="23.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1563,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="40.5">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="41.4">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1588,7 +1580,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="40.5">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="41.4">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1599,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="23.25">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="23.4">
       <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +1618,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="23.25">
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="23.4">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1645,7 +1637,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="40.5">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="41.4">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1656,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="40.5">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="41.4">
       <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1675,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="23.25">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="23.4">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
@@ -1702,7 +1694,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="40.5">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="42">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +1711,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="60.75">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="61.8">
       <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
@@ -1738,7 +1730,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="23.25">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="23.4">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -1756,7 +1748,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="40.5">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="41.4">
       <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
@@ -1774,7 +1766,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="40.5">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="41.4">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
@@ -1792,7 +1784,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="40.5">
+    <row r="15" spans="1:11" ht="41.4">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
@@ -1842,24 +1834,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="94.125" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="94.09765625" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="3" max="3" width="31.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="46.5">
+    <row r="1" spans="1:3" ht="46.2">
       <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
@@ -1877,7 +1869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="41.25" thickTop="1">
+    <row r="3" spans="1:3" ht="42" thickTop="1">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5">
+    <row r="4" spans="1:3" ht="41.4">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1899,7 +1891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="23.25">
+    <row r="5" spans="1:3" ht="23.4">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +1902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23.25">
+    <row r="6" spans="1:3" ht="23.4">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="40.5">
+    <row r="7" spans="1:3" ht="41.4">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1932,7 +1924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="40.5">
+    <row r="8" spans="1:3" ht="41.4">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1943,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="23.25">
+    <row r="9" spans="1:3" ht="23.4">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1954,7 +1946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="40.5">
+    <row r="10" spans="1:3" ht="42">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1965,7 +1957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="40.5">
+    <row r="11" spans="1:3" ht="41.4">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="23.25">
+    <row r="12" spans="1:3" ht="23.4">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1987,7 +1979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="40.5">
+    <row r="13" spans="1:3" ht="41.4">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -1998,7 +1990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="40.5">
+    <row r="14" spans="1:3" ht="41.4">
       <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
@@ -2009,7 +2001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="40.5">
+    <row r="15" spans="1:3" ht="41.4">
       <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
@@ -2027,7 +2019,7 @@
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
     </row>
-    <row r="17" spans="1:3" ht="28.5">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" s="21" t="s">
         <v>36</v>
       </c>
@@ -2048,21 +2040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097F647E837EAA041BF33D526EAD295A9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ff9ee1791d4fc8363718eabd8629e2f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02d86f83-19e7-4da8-8ebf-7f36419ed859" xmlns:ns4="a47bc3fc-ccaf-4638-8ec8-7ad8112417e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90bef3c9733ad0b6ba215af16d77b0ee" ns3:_="" ns4:_="">
     <xsd:import namespace="02d86f83-19e7-4da8-8ebf-7f36419ed859"/>
@@ -2279,24 +2256,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4622C531-3968-490F-8C12-81F7667D64FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8232BB2-5D88-46D2-97A6-D4F3116CB7AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{278B3128-9953-4857-AE4F-0DC2A9462698}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2313,4 +2288,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8232BB2-5D88-46D2-97A6-D4F3116CB7AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4622C531-3968-490F-8C12-81F7667D64FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="02d86f83-19e7-4da8-8ebf-7f36419ed859"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a47bc3fc-ccaf-4638-8ec8-7ad8112417e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>